--- a/public/cohort/fileExcel/xlsxUIT/OPEN/WI_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/WI_OPEN.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -910,28 +910,40 @@
     <t>Hoofdstuk 1: Grafieken en vergelijkingen, Hoofdstuk 2: Vlakke meetkunde</t>
   </si>
   <si>
+    <t xml:space="preserve">WI/K/1, WI/K/2, WI/K/3, WI/V/2   </t>
+  </si>
+  <si>
+    <t>Hoofdstuk 3: Informatieverwerking</t>
+  </si>
+  <si>
+    <t>WI/K/1, WI/K/2, WI/K/7, WI/V/3</t>
+  </si>
+  <si>
+    <t>Hoofdstuk 4: Machtsverbanden, Hoofdstuk 5: Rekenen, Hoofdstuk 6: Goniometrie</t>
+  </si>
+  <si>
+    <t>WI/K/1, WI/K/2, WI/K/3, WI/V/2, Rekenen</t>
+  </si>
+  <si>
+    <t>Hoofdstuk 7: Exponentiële formules, Hoofdstuk 8: Ruimtemeetkunde</t>
+  </si>
+  <si>
+    <t>WI/K/1, WI/K/2, WI/K/3, WI/V/2</t>
+  </si>
+  <si>
     <t xml:space="preserve">WI/K/2, WI/K/3, WI/V/2   </t>
   </si>
   <si>
-    <t>Hoofdstuk 3: Informatieverwerking</t>
-  </si>
-  <si>
     <t>WI/K/2, WI/K/7, WI/V/3</t>
   </si>
   <si>
-    <t>opdracht over oriÃ«ntatie op leren en werken bij een zelfgekozen sector</t>
+    <t>opdracht over oriëntatie op leren en werken bij een zelfgekozen sector</t>
   </si>
   <si>
     <t>WI/K/1, WI/K/2, WI/V/3, WI/K/8</t>
   </si>
   <si>
-    <t>Hoofdstuk 4: Machtsverbanden, Hoofdstuk 5: Rekenen, Hoofdstuk 6: Goniometrie</t>
-  </si>
-  <si>
     <t>WI/K/2, WI/K/3, WI/V/2, Rekenen</t>
-  </si>
-  <si>
-    <t>Hoofdstuk 7: ExponentiÃ«le formules, Hoofdstuk 8: Ruimtemeetkunde</t>
   </si>
   <si>
     <t>WI/K/2, WI/K/3, WI/V/2</t>
@@ -2661,7 +2673,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602303241</v>
+        <v>44385.633356481</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3050,7 +3062,7 @@
         <v>3</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
         <v>73</v>
@@ -3142,7 +3154,7 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
         <v>75</v>
@@ -3214,25 +3226,27 @@
       </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
         <v>76</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="45"/>
+      <c r="L20" s="45">
+        <v>100</v>
+      </c>
       <c r="M20" s="27" t="s">
         <v>8</v>
       </c>
       <c r="N20" s="46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
         <v>77</v>
@@ -3304,7 +3318,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="G21" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
         <v>78</v>
@@ -3321,10 +3335,10 @@
         <v>8</v>
       </c>
       <c r="N21" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P21" s="32" t="s">
         <v>79</v>
@@ -3391,36 +3405,26 @@
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1" ht="72">
-      <c r="D22" s="2">
-        <v>838</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="G22" s="27">
-        <v>3</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>80</v>
-      </c>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
       <c r="I22" s="45"/>
       <c r="J22" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K22" s="30"/>
-      <c r="L22" s="45">
-        <v>100</v>
-      </c>
+      <c r="L22" s="45"/>
       <c r="M22" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="46">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N22" s="46"/>
       <c r="O22" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22" s="32" t="s">
-        <v>81</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="P22" s="32"/>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -4945,7 +4949,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602303241</v>
+        <v>44385.633356481</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5334,10 +5338,10 @@
         <v>3</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -5426,10 +5430,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -5501,7 +5505,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -5519,7 +5523,7 @@
         <v>11</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -5591,7 +5595,7 @@
         <v>2</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
@@ -5608,10 +5612,10 @@
         <v>3</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -5683,7 +5687,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I22" s="45"/>
       <c r="J22" s="29" t="s">
@@ -5700,10 +5704,10 @@
         <v>2</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>

--- a/public/cohort/fileExcel/xlsxUIT/OPEN/WI_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/WI_OPEN.xlsx
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633356481</v>
+        <v>44387.766076389</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633356481</v>
+        <v>44387.766076389</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
